--- a/risk-tables/output/Master_NCI_Risk_Table.xlsx
+++ b/risk-tables/output/Master_NCI_Risk_Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="56">
   <si>
     <t>PAST HISTORY (most recent)</t>
   </si>
@@ -101,25 +101,25 @@
     <t>PAST HISTORY (previous 2)</t>
   </si>
   <si>
+    <t>HPV-negative/LSIL</t>
+  </si>
+  <si>
     <t>HPV-positive/NILM</t>
   </si>
   <si>
-    <t>HPV-negative/LSIL</t>
-  </si>
-  <si>
     <t>HPV-negative/ASC-US</t>
   </si>
   <si>
     <t xml:space="preserve"> Cotest-negative</t>
   </si>
   <si>
+    <t xml:space="preserve"> Cotest-negative x2</t>
+  </si>
+  <si>
     <t>HPV16-,18+</t>
   </si>
   <si>
-    <t>ASC-US, LSIL</t>
-  </si>
-  <si>
-    <t>ASC_US</t>
+    <t>ASC-US/LSIL</t>
   </si>
   <si>
     <t>Referral Screen Result</t>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Cotest-negative x2</t>
-  </si>
-  <si>
-    <t>ASC-US/LSIL</t>
   </si>
   <si>
     <t>Biopsy Result Before Treatment</t>
@@ -546,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -845,19 +842,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>5.3</v>
-      </c>
-      <c r="E15">
-        <v>8.82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,13 +856,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>8.99</v>
+        <v>5.3</v>
       </c>
       <c r="E16">
-        <v>13.31</v>
+        <v>8.82</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -888,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>11.27</v>
+        <v>8.99</v>
       </c>
       <c r="E17">
-        <v>15.36</v>
+        <v>13.31</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -908,16 +896,16 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>27.76</v>
+        <v>11.27</v>
       </c>
       <c r="E18">
-        <v>33.24</v>
+        <v>15.36</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -928,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>36.14</v>
+        <v>27.76</v>
       </c>
       <c r="E19">
-        <v>42.65</v>
+        <v>33.24</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -948,16 +936,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>60.17</v>
+        <v>36.14</v>
       </c>
       <c r="E20">
-        <v>63.93</v>
+        <v>42.65</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -965,19 +953,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>60.17</v>
       </c>
       <c r="E21">
-        <v>4.5</v>
+        <v>63.93</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -988,13 +976,13 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>3.54</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -1008,13 +996,13 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>3.05</v>
+        <v>3.54</v>
       </c>
       <c r="E23">
-        <v>3.89</v>
+        <v>4.63</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1028,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>15.33</v>
+        <v>3.05</v>
       </c>
       <c r="E24">
-        <v>17.85</v>
+        <v>3.89</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -1048,16 +1036,16 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>33.03</v>
+        <v>15.33</v>
       </c>
       <c r="E25">
-        <v>41.17</v>
+        <v>17.85</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1068,13 +1056,13 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>30.25</v>
+        <v>33.03</v>
       </c>
       <c r="E26">
-        <v>30.25</v>
+        <v>41.17</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -1082,22 +1070,22 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="E27">
-        <v>0.09</v>
+        <v>30.25</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1108,16 +1096,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1128,16 +1116,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>0.44</v>
+        <v>0.01</v>
       </c>
       <c r="E29">
-        <v>0.79</v>
+        <v>0.36</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1148,16 +1136,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>2.77</v>
+        <v>0.44</v>
       </c>
       <c r="E30">
-        <v>3.29</v>
+        <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1168,13 +1156,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>0.78</v>
+        <v>2.77</v>
       </c>
       <c r="E31">
-        <v>0.88</v>
+        <v>3.29</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
@@ -1188,13 +1176,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>13.8</v>
+        <v>0.78</v>
       </c>
       <c r="E32">
-        <v>13.8</v>
+        <v>0.88</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
@@ -1208,16 +1196,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
+        <v>13.8</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>13.8</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1225,19 +1213,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="E34">
-        <v>2.29</v>
+        <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1248,13 +1236,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>2.03</v>
+        <v>0.74</v>
       </c>
       <c r="E35">
-        <v>3.78</v>
+        <v>2.29</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -1268,10 +1256,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="E36">
         <v>3.78</v>
@@ -1288,16 +1276,16 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>13.56</v>
+        <v>2.1</v>
       </c>
       <c r="E37">
-        <v>17.62</v>
+        <v>3.78</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1308,13 +1296,13 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>13.79</v>
+        <v>13.56</v>
       </c>
       <c r="E38">
-        <v>21.27</v>
+        <v>17.62</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
@@ -1328,16 +1316,16 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>32.28</v>
+        <v>13.79</v>
       </c>
       <c r="E39">
-        <v>33.65</v>
+        <v>21.27</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1345,19 +1333,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>2.96</v>
+        <v>32.28</v>
       </c>
       <c r="E40">
-        <v>7.11</v>
+        <v>33.65</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1368,13 +1356,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>5.34</v>
+        <v>2.96</v>
       </c>
       <c r="E41">
-        <v>10.16</v>
+        <v>7.11</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
@@ -1388,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>6.7</v>
+        <v>5.34</v>
       </c>
       <c r="E42">
-        <v>11.29</v>
+        <v>10.16</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
@@ -1408,13 +1396,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>23.55</v>
+        <v>6.7</v>
       </c>
       <c r="E43">
-        <v>25.23</v>
+        <v>11.29</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
@@ -1425,16 +1413,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>2.49</v>
+        <v>23.55</v>
       </c>
       <c r="E44">
-        <v>3.77</v>
+        <v>25.23</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
@@ -1448,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="E45">
-        <v>4.22</v>
+        <v>3.77</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
@@ -1468,13 +1456,13 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>3.48</v>
+        <v>2.45</v>
       </c>
       <c r="E46">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
@@ -1488,13 +1476,13 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>19.1</v>
+        <v>3.48</v>
       </c>
       <c r="E47">
-        <v>21.86</v>
+        <v>3.48</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
@@ -1502,22 +1490,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="E48">
-        <v>0.08</v>
+        <v>21.86</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1528,16 +1516,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1548,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E50">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -1568,16 +1556,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
-        <v>2.48</v>
+        <v>0.04</v>
       </c>
       <c r="E51">
-        <v>3.1</v>
+        <v>0.25</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1588,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>0.75</v>
+        <v>2.48</v>
       </c>
       <c r="E52">
-        <v>0.85</v>
+        <v>3.1</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
@@ -1608,13 +1596,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>12.5</v>
+        <v>0.75</v>
       </c>
       <c r="E53">
-        <v>12.5</v>
+        <v>0.85</v>
       </c>
       <c r="F53" t="s">
         <v>23</v>
@@ -1628,16 +1616,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E54">
-        <v>0.09</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1645,19 +1633,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2.25</v>
+        <v>0.09</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1668,13 +1656,13 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>1.98</v>
+        <v>0.68</v>
       </c>
       <c r="E56">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -1688,13 +1676,13 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E57">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -1708,16 +1696,16 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>12.67</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>3.78</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1728,13 +1716,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>14.87</v>
+        <v>12.67</v>
       </c>
       <c r="E59">
-        <v>22.56</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
         <v>23</v>
@@ -1748,16 +1736,16 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>31.34</v>
+        <v>14.87</v>
       </c>
       <c r="E60">
-        <v>32.82</v>
+        <v>22.56</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1765,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>2.45</v>
+        <v>31.34</v>
       </c>
       <c r="E61">
-        <v>7.34</v>
+        <v>32.82</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1788,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>4.4</v>
+        <v>2.45</v>
       </c>
       <c r="E62">
-        <v>9.210000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="F62" t="s">
         <v>23</v>
@@ -1808,13 +1796,13 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>5.65</v>
+        <v>4.4</v>
       </c>
       <c r="E63">
-        <v>10.41</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F63" t="s">
         <v>23</v>
@@ -1828,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>23.16</v>
+        <v>5.65</v>
       </c>
       <c r="E64">
-        <v>24.87</v>
+        <v>10.41</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
@@ -1845,16 +1833,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>2.66</v>
+        <v>23.16</v>
       </c>
       <c r="E65">
-        <v>4.4</v>
+        <v>24.87</v>
       </c>
       <c r="F65" t="s">
         <v>23</v>
@@ -1868,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="E66">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
@@ -1888,13 +1876,13 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67">
-        <v>3.48</v>
+        <v>2.88</v>
       </c>
       <c r="E67">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="F67" t="s">
         <v>23</v>
@@ -1908,15 +1896,35 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>3.48</v>
+      </c>
+      <c r="E68">
+        <v>3.48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>18.58</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>22.1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1927,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,7 +1975,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1987,7 +1995,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2007,7 +2015,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2027,7 +2035,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2041,7 +2049,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2061,7 +2069,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2081,7 +2089,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2101,7 +2109,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2121,7 +2129,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2141,7 +2149,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2161,7 +2169,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2181,7 +2189,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2201,7 +2209,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2221,7 +2229,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2241,7 +2249,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -2259,9 +2267,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2279,9 +2287,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2299,9 +2307,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2319,9 +2327,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2339,167 +2347,167 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>8.619999999999999</v>
       </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>5.26</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>6.94</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>7.94</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>7.94</v>
       </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>50</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>33.33</v>
-      </c>
-      <c r="F26">
-        <v>33.33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>0.06</v>
+        <v>33.33</v>
       </c>
       <c r="F28">
-        <v>0.78</v>
+        <v>33.33</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -2507,19 +2515,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3.1</v>
+        <v>0.14</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -2527,19 +2535,19 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>5.66</v>
+        <v>0.06</v>
       </c>
       <c r="F30">
-        <v>5.66</v>
+        <v>0.78</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -2547,19 +2555,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -2567,13 +2575,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>11.11</v>
+        <v>5.66</v>
       </c>
       <c r="F32">
-        <v>11.11</v>
+        <v>5.66</v>
       </c>
       <c r="G32" t="s">
         <v>23</v>
@@ -2584,19 +2592,19 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2604,19 +2612,19 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>2.13</v>
+        <v>11.11</v>
       </c>
       <c r="F34">
-        <v>6.59</v>
+        <v>11.11</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2624,19 +2632,16 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>2.59</v>
+        <v>0.06</v>
       </c>
       <c r="F35">
-        <v>2.59</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2647,16 +2652,16 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>23.81</v>
+        <v>0.96</v>
       </c>
       <c r="F36">
-        <v>23.81</v>
+        <v>2.36</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2667,16 +2672,16 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>6.59</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2687,128 +2692,119 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>2.59</v>
+      </c>
+      <c r="F38">
+        <v>2.59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>23.81</v>
+      </c>
+      <c r="F39">
+        <v>23.81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>36.36</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>36.36</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0.29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>0.12</v>
-      </c>
-      <c r="F40">
-        <v>4.17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41">
-        <v>2.6</v>
-      </c>
-      <c r="F41">
-        <v>7.46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>19.81</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>51.72</v>
+        <v>0.29</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
@@ -2816,10 +2812,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2828,10 +2824,10 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F44">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
@@ -2839,22 +2835,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F45">
-        <v>6.94</v>
+        <v>7.46</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
@@ -2862,10 +2858,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -2874,172 +2870,264 @@
         <v>19</v>
       </c>
       <c r="E46">
-        <v>19.3</v>
+        <v>19.81</v>
       </c>
       <c r="F46">
-        <v>53.12</v>
+        <v>51.72</v>
       </c>
       <c r="G46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>15.63</v>
-      </c>
-      <c r="F47">
-        <v>24.11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48">
+        <v>0.22</v>
+      </c>
+      <c r="F48">
+        <v>4.23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>33</v>
       </c>
-      <c r="E48">
-        <v>14.3</v>
-      </c>
-      <c r="F48">
-        <v>27.1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
       <c r="E49">
-        <v>20.88</v>
+        <v>2.56</v>
       </c>
       <c r="F49">
-        <v>25.94</v>
+        <v>6.94</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
       <c r="E50">
-        <v>41.58</v>
+        <v>19.3</v>
       </c>
       <c r="F50">
-        <v>56.96</v>
+        <v>53.12</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>3.55</v>
+        <v>15.63</v>
       </c>
       <c r="F51">
-        <v>7.9</v>
+        <v>24.11</v>
       </c>
       <c r="G51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>8.77</v>
+        <v>14.3</v>
       </c>
       <c r="F52">
-        <v>11.88</v>
+        <v>27.1</v>
       </c>
       <c r="G52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>20.88</v>
       </c>
       <c r="F53">
-        <v>13.39</v>
+        <v>25.94</v>
       </c>
       <c r="G53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54">
+        <v>41.58</v>
+      </c>
+      <c r="F54">
+        <v>56.96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>3.55</v>
+      </c>
+      <c r="F55">
+        <v>7.9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>8.77</v>
+      </c>
+      <c r="F56">
+        <v>11.88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>13.39</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
         <v>39.77</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>49.17</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G58" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3401,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0.05</v>
@@ -3441,7 +3529,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>3.11</v>
@@ -3510,7 +3598,7 @@
         <v>0.48</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3521,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0.28</v>
@@ -3561,7 +3649,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>6.6</v>
@@ -3756,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3802,7 +3890,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>1.12</v>
@@ -3871,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3917,7 +4005,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>1.89</v>
@@ -3963,7 +4051,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0.66</v>
@@ -4090,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4136,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -4176,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>10.22</v>
@@ -4287,7 +4375,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0.15</v>
@@ -4304,7 +4392,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>0</v>

--- a/risk-tables/output/Master_NCI_Risk_Table.xlsx
+++ b/risk-tables/output/Master_NCI_Risk_Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="57">
   <si>
     <t>PAST HISTORY (most recent)</t>
   </si>
@@ -131,7 +131,7 @@
     <t>CIN3+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>HPV-positive NILM</t>
+    <t>HPV-positive NILM x2</t>
   </si>
   <si>
     <t>HPV-positive ASC-US</t>
@@ -170,7 +170,7 @@
     <t>Low Grade</t>
   </si>
   <si>
-    <t xml:space="preserve"> HPV-negative/ASCUS/LSIL</t>
+    <t xml:space="preserve"> HPV-negative/ASC-US/LSIL</t>
   </si>
   <si>
     <t>HPV-negative x2</t>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Biopsy Result Before Treatment</t>
+  </si>
+  <si>
+    <t>CIN 2 or 3</t>
   </si>
   <si>
     <t>HPV-negative x3</t>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4258,7 +4261,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4298,7 +4301,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -4318,7 +4321,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -4338,7 +4341,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -4372,10 +4375,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0.15</v>
@@ -4389,10 +4392,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>0</v>

--- a/risk-tables/output/Master_NCI_Risk_Table.xlsx
+++ b/risk-tables/output/Master_NCI_Risk_Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="57">
   <si>
     <t>PAST HISTORY (most recent)</t>
   </si>
@@ -101,25 +101,25 @@
     <t>PAST HISTORY (previous 2)</t>
   </si>
   <si>
+    <t>HPV-negative/LSIL</t>
+  </si>
+  <si>
     <t>HPV-positive/NILM</t>
   </si>
   <si>
-    <t>HPV-negative/LSIL</t>
-  </si>
-  <si>
     <t>HPV-negative/ASC-US</t>
   </si>
   <si>
     <t xml:space="preserve"> Cotest-negative</t>
   </si>
   <si>
+    <t xml:space="preserve"> Cotest-negative x2</t>
+  </si>
+  <si>
     <t>HPV16-,18+</t>
   </si>
   <si>
-    <t>ASC-US, LSIL</t>
-  </si>
-  <si>
-    <t>ASC_US</t>
+    <t>ASC-US/LSIL</t>
   </si>
   <si>
     <t>Referral Screen Result</t>
@@ -131,7 +131,7 @@
     <t>CIN3+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>HPV-positive NILM</t>
+    <t>HPV-positive NILM x2</t>
   </si>
   <si>
     <t>HPV-positive ASC-US</t>
@@ -170,7 +170,7 @@
     <t>Low Grade</t>
   </si>
   <si>
-    <t xml:space="preserve"> HPV-negative/ASCUS/LSIL</t>
+    <t xml:space="preserve"> HPV-negative/ASC-US/LSIL</t>
   </si>
   <si>
     <t>HPV-negative x2</t>
@@ -179,10 +179,10 @@
     <t>Cotest-negative x2</t>
   </si>
   <si>
-    <t>ASC-US/LSIL</t>
-  </si>
-  <si>
     <t>Biopsy Result Before Treatment</t>
+  </si>
+  <si>
+    <t>CIN 2 or 3</t>
   </si>
   <si>
     <t>HPV-negative x3</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -845,19 +845,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>5.3</v>
-      </c>
-      <c r="E15">
-        <v>8.82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -868,13 +859,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>8.99</v>
+        <v>5.3</v>
       </c>
       <c r="E16">
-        <v>13.31</v>
+        <v>8.82</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -888,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>11.27</v>
+        <v>8.99</v>
       </c>
       <c r="E17">
-        <v>15.36</v>
+        <v>13.31</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -908,16 +899,16 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>27.76</v>
+        <v>11.27</v>
       </c>
       <c r="E18">
-        <v>33.24</v>
+        <v>15.36</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -928,13 +919,13 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>36.14</v>
+        <v>27.76</v>
       </c>
       <c r="E19">
-        <v>42.65</v>
+        <v>33.24</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -948,16 +939,16 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>60.17</v>
+        <v>36.14</v>
       </c>
       <c r="E20">
-        <v>63.93</v>
+        <v>42.65</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -965,19 +956,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>60.17</v>
       </c>
       <c r="E21">
-        <v>4.5</v>
+        <v>63.93</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -988,13 +979,13 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>3.54</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -1008,13 +999,13 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>3.05</v>
+        <v>3.54</v>
       </c>
       <c r="E23">
-        <v>3.89</v>
+        <v>4.63</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -1028,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>15.33</v>
+        <v>3.05</v>
       </c>
       <c r="E24">
-        <v>17.85</v>
+        <v>3.89</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -1048,16 +1039,16 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>33.03</v>
+        <v>15.33</v>
       </c>
       <c r="E25">
-        <v>41.17</v>
+        <v>17.85</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1068,13 +1059,13 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>30.25</v>
+        <v>33.03</v>
       </c>
       <c r="E26">
-        <v>30.25</v>
+        <v>41.17</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -1082,22 +1073,22 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="E27">
-        <v>0.09</v>
+        <v>30.25</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1108,16 +1099,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1128,16 +1119,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>0.44</v>
+        <v>0.01</v>
       </c>
       <c r="E29">
-        <v>0.79</v>
+        <v>0.36</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1148,16 +1139,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>2.77</v>
+        <v>0.44</v>
       </c>
       <c r="E30">
-        <v>3.29</v>
+        <v>0.79</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1168,13 +1159,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>0.78</v>
+        <v>2.77</v>
       </c>
       <c r="E31">
-        <v>0.88</v>
+        <v>3.29</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
@@ -1188,13 +1179,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>13.8</v>
+        <v>0.78</v>
       </c>
       <c r="E32">
-        <v>13.8</v>
+        <v>0.88</v>
       </c>
       <c r="F32" t="s">
         <v>23</v>
@@ -1208,16 +1199,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
+        <v>13.8</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>13.8</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1225,19 +1216,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="E34">
-        <v>2.29</v>
+        <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1248,13 +1239,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>2.03</v>
+        <v>0.74</v>
       </c>
       <c r="E35">
-        <v>3.78</v>
+        <v>2.29</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -1268,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="E36">
         <v>3.78</v>
@@ -1288,16 +1279,16 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>13.56</v>
+        <v>2.1</v>
       </c>
       <c r="E37">
-        <v>17.62</v>
+        <v>3.78</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1308,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>13.79</v>
+        <v>13.56</v>
       </c>
       <c r="E38">
-        <v>21.27</v>
+        <v>17.62</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
@@ -1328,16 +1319,16 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>32.28</v>
+        <v>13.79</v>
       </c>
       <c r="E39">
-        <v>33.65</v>
+        <v>21.27</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1345,19 +1336,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>2.96</v>
+        <v>32.28</v>
       </c>
       <c r="E40">
-        <v>7.11</v>
+        <v>33.65</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1368,13 +1359,13 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>5.34</v>
+        <v>2.96</v>
       </c>
       <c r="E41">
-        <v>10.16</v>
+        <v>7.11</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
@@ -1388,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>6.7</v>
+        <v>5.34</v>
       </c>
       <c r="E42">
-        <v>11.29</v>
+        <v>10.16</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
@@ -1408,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>23.55</v>
+        <v>6.7</v>
       </c>
       <c r="E43">
-        <v>25.23</v>
+        <v>11.29</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
@@ -1425,16 +1416,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>2.49</v>
+        <v>23.55</v>
       </c>
       <c r="E44">
-        <v>3.77</v>
+        <v>25.23</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
@@ -1448,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="E45">
-        <v>4.22</v>
+        <v>3.77</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
@@ -1468,13 +1459,13 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>3.48</v>
+        <v>2.45</v>
       </c>
       <c r="E46">
-        <v>3.48</v>
+        <v>4.22</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
@@ -1488,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>19.1</v>
+        <v>3.48</v>
       </c>
       <c r="E47">
-        <v>21.86</v>
+        <v>3.48</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
@@ -1502,22 +1493,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>19.1</v>
       </c>
       <c r="E48">
-        <v>0.08</v>
+        <v>21.86</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1528,16 +1519,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1548,13 +1539,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E50">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -1568,16 +1559,16 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
-        <v>2.48</v>
+        <v>0.04</v>
       </c>
       <c r="E51">
-        <v>3.1</v>
+        <v>0.25</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1588,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>0.75</v>
+        <v>2.48</v>
       </c>
       <c r="E52">
-        <v>0.85</v>
+        <v>3.1</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
@@ -1608,13 +1599,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>12.5</v>
+        <v>0.75</v>
       </c>
       <c r="E53">
-        <v>12.5</v>
+        <v>0.85</v>
       </c>
       <c r="F53" t="s">
         <v>23</v>
@@ -1628,16 +1619,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E54">
-        <v>0.09</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1645,19 +1636,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2.25</v>
+        <v>0.09</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1668,13 +1659,13 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>1.98</v>
+        <v>0.68</v>
       </c>
       <c r="E56">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -1688,13 +1679,13 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E57">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -1708,16 +1699,16 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>12.67</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>17</v>
+        <v>3.78</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1728,13 +1719,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>14.87</v>
+        <v>12.67</v>
       </c>
       <c r="E59">
-        <v>22.56</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
         <v>23</v>
@@ -1748,16 +1739,16 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>31.34</v>
+        <v>14.87</v>
       </c>
       <c r="E60">
-        <v>32.82</v>
+        <v>22.56</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1765,19 +1756,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>2.45</v>
+        <v>31.34</v>
       </c>
       <c r="E61">
-        <v>7.34</v>
+        <v>32.82</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1788,13 +1779,13 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>4.4</v>
+        <v>2.45</v>
       </c>
       <c r="E62">
-        <v>9.210000000000001</v>
+        <v>7.34</v>
       </c>
       <c r="F62" t="s">
         <v>23</v>
@@ -1808,13 +1799,13 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63">
-        <v>5.65</v>
+        <v>4.4</v>
       </c>
       <c r="E63">
-        <v>10.41</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F63" t="s">
         <v>23</v>
@@ -1828,13 +1819,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D64">
-        <v>23.16</v>
+        <v>5.65</v>
       </c>
       <c r="E64">
-        <v>24.87</v>
+        <v>10.41</v>
       </c>
       <c r="F64" t="s">
         <v>23</v>
@@ -1845,16 +1836,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D65">
-        <v>2.66</v>
+        <v>23.16</v>
       </c>
       <c r="E65">
-        <v>4.4</v>
+        <v>24.87</v>
       </c>
       <c r="F65" t="s">
         <v>23</v>
@@ -1868,13 +1859,13 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="E66">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="F66" t="s">
         <v>23</v>
@@ -1888,13 +1879,13 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67">
-        <v>3.48</v>
+        <v>2.88</v>
       </c>
       <c r="E67">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="F67" t="s">
         <v>23</v>
@@ -1908,15 +1899,35 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>3.48</v>
+      </c>
+      <c r="E68">
+        <v>3.48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>18.58</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>22.1</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1927,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,7 +1978,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1987,7 +1998,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2007,7 +2018,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2027,7 +2038,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2041,7 +2052,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2061,7 +2072,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2081,7 +2092,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2101,7 +2112,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2121,7 +2132,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2141,7 +2152,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2161,7 +2172,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2181,7 +2192,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2201,7 +2212,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2221,7 +2232,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2241,7 +2252,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -2259,9 +2270,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2279,9 +2290,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2299,9 +2310,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2319,9 +2330,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2339,167 +2350,167 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>8.619999999999999</v>
       </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>5.26</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>6.94</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>7.94</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>7.94</v>
       </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>50</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>50</v>
       </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
         <v>16</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>33.33</v>
-      </c>
-      <c r="F26">
-        <v>33.33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>0.06</v>
+        <v>33.33</v>
       </c>
       <c r="F28">
-        <v>0.78</v>
+        <v>33.33</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -2507,19 +2518,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3.1</v>
+        <v>0.14</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -2527,19 +2538,19 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>5.66</v>
+        <v>0.06</v>
       </c>
       <c r="F30">
-        <v>5.66</v>
+        <v>0.78</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -2547,19 +2558,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -2567,13 +2578,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>11.11</v>
+        <v>5.66</v>
       </c>
       <c r="F32">
-        <v>11.11</v>
+        <v>5.66</v>
       </c>
       <c r="G32" t="s">
         <v>23</v>
@@ -2584,19 +2595,19 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2604,19 +2615,19 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
-        <v>2.13</v>
+        <v>11.11</v>
       </c>
       <c r="F34">
-        <v>6.59</v>
+        <v>11.11</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2624,19 +2635,16 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>2.59</v>
+        <v>0.06</v>
       </c>
       <c r="F35">
-        <v>2.59</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2647,16 +2655,16 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>23.81</v>
+        <v>0.96</v>
       </c>
       <c r="F36">
-        <v>23.81</v>
+        <v>2.36</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2667,16 +2675,16 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>6.59</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2687,128 +2695,119 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>2.59</v>
+      </c>
+      <c r="F38">
+        <v>2.59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>23.81</v>
+      </c>
+      <c r="F39">
+        <v>23.81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>36.36</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>36.36</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0.29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>0.12</v>
-      </c>
-      <c r="F40">
-        <v>4.17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41">
-        <v>2.6</v>
-      </c>
-      <c r="F41">
-        <v>7.46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>19.81</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>51.72</v>
+        <v>0.29</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
@@ -2816,10 +2815,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -2828,10 +2827,10 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F44">
-        <v>4.23</v>
+        <v>4.17</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
@@ -2839,22 +2838,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F45">
-        <v>6.94</v>
+        <v>7.46</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
@@ -2862,10 +2861,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -2874,172 +2873,264 @@
         <v>19</v>
       </c>
       <c r="E46">
-        <v>19.3</v>
+        <v>19.81</v>
       </c>
       <c r="F46">
-        <v>53.12</v>
+        <v>51.72</v>
       </c>
       <c r="G46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
-        <v>15.63</v>
-      </c>
-      <c r="F47">
-        <v>24.11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48">
+        <v>0.22</v>
+      </c>
+      <c r="F48">
+        <v>4.23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>33</v>
       </c>
-      <c r="E48">
-        <v>14.3</v>
-      </c>
-      <c r="F48">
-        <v>27.1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
       <c r="E49">
-        <v>20.88</v>
+        <v>2.56</v>
       </c>
       <c r="F49">
-        <v>25.94</v>
+        <v>6.94</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
       <c r="E50">
-        <v>41.58</v>
+        <v>19.3</v>
       </c>
       <c r="F50">
-        <v>56.96</v>
+        <v>53.12</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>3.55</v>
+        <v>15.63</v>
       </c>
       <c r="F51">
-        <v>7.9</v>
+        <v>24.11</v>
       </c>
       <c r="G51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>8.77</v>
+        <v>14.3</v>
       </c>
       <c r="F52">
-        <v>11.88</v>
+        <v>27.1</v>
       </c>
       <c r="G52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>20.88</v>
       </c>
       <c r="F53">
-        <v>13.39</v>
+        <v>25.94</v>
       </c>
       <c r="G53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54">
+        <v>41.58</v>
+      </c>
+      <c r="F54">
+        <v>56.96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>3.55</v>
+      </c>
+      <c r="F55">
+        <v>7.9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>8.77</v>
+      </c>
+      <c r="F56">
+        <v>11.88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>13.39</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
         <v>39.77</v>
       </c>
-      <c r="F54">
+      <c r="F58">
         <v>49.17</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G58" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3401,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0.05</v>
@@ -3441,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>3.11</v>
@@ -3510,7 +3601,7 @@
         <v>0.48</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3521,7 +3612,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0.28</v>
@@ -3561,7 +3652,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>6.6</v>
@@ -3756,7 +3847,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3802,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>1.12</v>
@@ -3871,7 +3962,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3917,7 +4008,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>1.89</v>
@@ -3963,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0.66</v>
@@ -4090,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4110,7 +4201,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -4130,13 +4221,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -4150,7 +4241,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -4170,13 +4261,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>10.22</v>
@@ -4190,7 +4281,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4210,7 +4301,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -4230,7 +4321,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -4250,7 +4341,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -4267,7 +4358,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -4284,7 +4375,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -4301,7 +4392,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
